--- a/Docs/软件开发计划安排.xlsx
+++ b/Docs/软件开发计划安排.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>3.18-24</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,6 +90,10 @@
   </si>
   <si>
     <t>实际完成日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.18</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -97,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,8 +124,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +143,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -296,13 +313,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -319,46 +339,53 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -640,7 +667,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E7"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -650,7 +677,9 @@
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
     <col min="6" max="6" width="33.25" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="12.625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -673,309 +702,312 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:8" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="19">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="G2" s="19">
+        <v>1</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11">
+      <c r="B3" s="16"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="7">
         <v>19</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11">
+      <c r="B4" s="16"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="7">
         <v>20</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11">
+      <c r="B5" s="16"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="7">
         <v>21</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="E5" s="16"/>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11">
+      <c r="B6" s="16"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="7">
         <v>22</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11">
+      <c r="B7" s="16"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="7">
         <v>23</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="E7" s="16"/>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="15">
+      <c r="D8" s="9">
         <v>24</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>25</v>
       </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11">
+      <c r="B10" s="16"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="7">
         <v>26</v>
       </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11">
+      <c r="B11" s="16"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="7">
         <v>27</v>
       </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11">
+      <c r="B12" s="16"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="7">
         <v>28</v>
       </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11">
+      <c r="B13" s="16"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="7">
         <v>29</v>
       </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11">
+      <c r="B14" s="16"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="7">
         <v>30</v>
       </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="15">
+      <c r="D15" s="9">
         <v>31</v>
       </c>
-      <c r="G15" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="7">
         <v>2</v>
       </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="16">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="10">
         <v>3</v>
       </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="7">
         <v>4</v>
       </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="16">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="10">
         <v>5</v>
       </c>
-      <c r="G20" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="7">
         <v>6</v>
       </c>
-      <c r="G21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="17">
+      <c r="D22" s="11">
         <v>7</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="9">
         <v>0</v>
       </c>
     </row>

--- a/Docs/软件开发计划安排.xlsx
+++ b/Docs/软件开发计划安排.xlsx
@@ -667,7 +667,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Docs/软件开发计划安排.xlsx
+++ b/Docs/软件开发计划安排.xlsx
@@ -101,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,8 +132,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +158,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -313,7 +326,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -321,8 +334,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -357,6 +373,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -375,17 +397,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -667,7 +696,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -702,89 +731,89 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="18">
+    <row r="2" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="13">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="13">
         <v>1</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+    <row r="3" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="7">
+      <c r="B3" s="18"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="21">
         <v>19</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7">
-        <v>0</v>
+      <c r="G3" s="21">
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="7">
         <v>20</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="7">
-        <v>0</v>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22">
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="7">
         <v>21</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="7">
         <v>22</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="18" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="7">
@@ -795,12 +824,12 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="7">
         <v>23</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="18"/>
       <c r="G7" s="7">
         <v>0</v>
       </c>
@@ -809,8 +838,8 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="9">
         <v>24</v>
       </c>
@@ -825,10 +854,10 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="5">
@@ -842,8 +871,8 @@
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="7">
         <v>26</v>
       </c>
@@ -855,8 +884,8 @@
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="7">
         <v>27</v>
       </c>
@@ -868,8 +897,8 @@
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="7">
         <v>28</v>
       </c>
@@ -881,8 +910,8 @@
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="7">
         <v>29</v>
       </c>
@@ -894,8 +923,8 @@
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="7">
         <v>30</v>
       </c>
@@ -907,8 +936,8 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="9">
         <v>31</v>
       </c>
@@ -920,10 +949,10 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="5">
@@ -937,8 +966,8 @@
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="7">
         <v>2</v>
       </c>
@@ -950,8 +979,8 @@
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="10">
         <v>3</v>
       </c>
@@ -963,8 +992,8 @@
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="7">
         <v>4</v>
       </c>
@@ -976,8 +1005,8 @@
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="10">
         <v>5</v>
       </c>
@@ -989,8 +1018,8 @@
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="7">
         <v>6</v>
       </c>
@@ -1002,8 +1031,8 @@
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="11">
         <v>7</v>
       </c>
@@ -1083,7 +1112,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="B16:B22"/>
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="B2:B8"/>

--- a/Docs/软件开发计划安排.xlsx
+++ b/Docs/软件开发计划安排.xlsx
@@ -379,6 +379,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -395,18 +407,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -696,7 +696,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -735,16 +735,16 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="13">
         <v>18</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="13" t="s">
@@ -757,20 +757,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+    <row r="3" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="21">
+      <c r="B3" s="22"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="15">
         <v>19</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="21" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="15">
         <v>0.6</v>
       </c>
     </row>
@@ -778,42 +778,42 @@
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="7">
         <v>20</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22">
-        <v>0.2</v>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16">
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="7">
         <v>21</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="7">
         <v>22</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="7">
@@ -824,12 +824,12 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="7">
         <v>23</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="22"/>
       <c r="G7" s="7">
         <v>0</v>
       </c>
@@ -838,8 +838,8 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="9">
         <v>24</v>
       </c>
@@ -854,10 +854,10 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="5">
@@ -871,8 +871,8 @@
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="7">
         <v>26</v>
       </c>
@@ -884,8 +884,8 @@
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="7">
         <v>27</v>
       </c>
@@ -897,8 +897,8 @@
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="7">
         <v>28</v>
       </c>
@@ -910,8 +910,8 @@
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="7">
         <v>29</v>
       </c>
@@ -923,8 +923,8 @@
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="7">
         <v>30</v>
       </c>
@@ -936,8 +936,8 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="9">
         <v>31</v>
       </c>
@@ -949,10 +949,10 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="5">
@@ -966,8 +966,8 @@
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="7">
         <v>2</v>
       </c>
@@ -979,8 +979,8 @@
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="10">
         <v>3</v>
       </c>
@@ -992,8 +992,8 @@
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="7">
         <v>4</v>
       </c>
@@ -1005,8 +1005,8 @@
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="10">
         <v>5</v>
       </c>
@@ -1018,8 +1018,8 @@
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="7">
         <v>6</v>
       </c>
@@ -1031,8 +1031,8 @@
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="11">
         <v>7</v>
       </c>

--- a/Docs/软件开发计划安排.xlsx
+++ b/Docs/软件开发计划安排.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>3.18-24</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -94,6 +94,10 @@
   </si>
   <si>
     <t>2019.03.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -338,7 +342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -385,12 +389,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -407,6 +405,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -696,7 +715,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4:G5"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -735,16 +754,16 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="13">
         <v>18</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="25" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="13" t="s">
@@ -757,63 +776,68 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
+    <row r="3" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="15">
+      <c r="B3" s="20"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="28">
         <v>19</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="15" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="15">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="G3" s="28">
+        <v>1</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="7">
+      <c r="B4" s="20"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="15">
         <v>20</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="7">
+      <c r="B5" s="20"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="15">
         <v>21</v>
       </c>
       <c r="E5" s="22"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="7">
         <v>22</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="20" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="7">
@@ -824,12 +848,12 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="7">
         <v>23</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="20"/>
       <c r="G7" s="7">
         <v>0</v>
       </c>
@@ -838,8 +862,8 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="9">
         <v>24</v>
       </c>
@@ -854,10 +878,10 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="5">
@@ -871,8 +895,8 @@
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="7">
         <v>26</v>
       </c>
@@ -884,8 +908,8 @@
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="7">
         <v>27</v>
       </c>
@@ -897,8 +921,8 @@
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="7">
         <v>28</v>
       </c>
@@ -910,8 +934,8 @@
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7">
         <v>29</v>
       </c>
@@ -923,8 +947,8 @@
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="7">
         <v>30</v>
       </c>
@@ -936,8 +960,8 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="9">
         <v>31</v>
       </c>
@@ -949,10 +973,10 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="5">
@@ -966,8 +990,8 @@
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="7">
         <v>2</v>
       </c>
@@ -979,8 +1003,8 @@
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="10">
         <v>3</v>
       </c>
@@ -992,8 +1016,8 @@
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="7">
         <v>4</v>
       </c>
@@ -1005,8 +1029,8 @@
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="10">
         <v>5</v>
       </c>
@@ -1018,8 +1042,8 @@
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="7">
         <v>6</v>
       </c>
@@ -1031,8 +1055,8 @@
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="11">
         <v>7</v>
       </c>
@@ -1112,7 +1136,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B16:B22"/>

--- a/Docs/软件开发计划安排.xlsx
+++ b/Docs/软件开发计划安排.xlsx
@@ -342,7 +342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -387,6 +387,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
@@ -715,7 +721,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -754,16 +760,16 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="13">
         <v>18</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="27" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="13" t="s">
@@ -776,23 +782,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27">
+    <row r="3" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="28">
+      <c r="B3" s="22"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="30">
         <v>19</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="28" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="30">
         <v>1</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="30" t="s">
         <v>19</v>
       </c>
     </row>
@@ -800,47 +806,48 @@
       <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="15">
         <v>20</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="23"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="15">
         <v>21</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="7">
         <v>22</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="7">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16">
         <v>0</v>
       </c>
     </row>
@@ -848,22 +855,21 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="7">
         <v>23</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:8" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="9">
         <v>24</v>
       </c>
@@ -878,10 +884,10 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="5">
@@ -895,8 +901,8 @@
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="7">
         <v>26</v>
       </c>
@@ -908,8 +914,8 @@
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="7">
         <v>27</v>
       </c>
@@ -921,8 +927,8 @@
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="7">
         <v>28</v>
       </c>
@@ -934,8 +940,8 @@
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="7">
         <v>29</v>
       </c>
@@ -947,8 +953,8 @@
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="17"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="7">
         <v>30</v>
       </c>
@@ -960,8 +966,8 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="9">
         <v>31</v>
       </c>
@@ -973,10 +979,10 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="5">
@@ -990,8 +996,8 @@
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="7">
         <v>2</v>
       </c>
@@ -1003,8 +1009,8 @@
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="10">
         <v>3</v>
       </c>
@@ -1016,8 +1022,8 @@
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="7">
         <v>4</v>
       </c>
@@ -1029,8 +1035,8 @@
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="10">
         <v>5</v>
       </c>
@@ -1042,8 +1048,8 @@
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="7">
         <v>6</v>
       </c>
@@ -1055,8 +1061,8 @@
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="11">
         <v>7</v>
       </c>
@@ -1136,8 +1142,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B16:B22"/>
